--- a/data/CS3/case30/case30_base.xlsx
+++ b/data/CS3/case30/case30_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_4\case30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA187050-851E-4E62-9E1D-D05880241510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB8ADD9-35D5-4094-AEDC-DF2073A9EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="450" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="34" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <sheet name="Profiles, Qc, Summer, S1" sheetId="7" r:id="rId10"/>
     <sheet name="EV Profiles" sheetId="33" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Base Consumption'!$A$1:$F$31</definedName>
   </definedNames>
@@ -151,323 +148,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="PV Profile"/>
-      <sheetName val="PV installed"/>
-      <sheetName val="PV Matlab"/>
-      <sheetName val="ES installed"/>
-      <sheetName val="ES Matlab"/>
-      <sheetName val="EV Distribution"/>
-      <sheetName val="EV Characterization"/>
-      <sheetName val="Pc, Winter, S1"/>
-      <sheetName val="Pc, Winter, S2"/>
-      <sheetName val="Pc, Winter, S3"/>
-      <sheetName val="Qc, Winter, S1"/>
-      <sheetName val="Qc, Winter, S2"/>
-      <sheetName val="Qc, Winter, S3"/>
-      <sheetName val="UpFlex, Winter"/>
-      <sheetName val="DownFlex, Winter"/>
-      <sheetName val="CostFlex, Winter"/>
-      <sheetName val="Pg, Winter, S1"/>
-      <sheetName val="Pg, Winter, S2"/>
-      <sheetName val="Pg, Winter, S3"/>
-      <sheetName val="Qg, Winter, S1"/>
-      <sheetName val="Qg, Winter, S2"/>
-      <sheetName val="Qg, Winter, S3"/>
-      <sheetName val="GenStatus, Winter"/>
-      <sheetName val="Pc, Summer, S1"/>
-      <sheetName val="Pc, Summer, S2"/>
-      <sheetName val="Pc, Summer, S3"/>
-      <sheetName val="Qc, Summer, S1"/>
-      <sheetName val="Qc, Summer, S2"/>
-      <sheetName val="Qc, Summer, S3"/>
-      <sheetName val="UpFlex, Summer"/>
-      <sheetName val="DownFlex, Summer"/>
-      <sheetName val="CostFlex, Summer"/>
-      <sheetName val="Pg, Summer, S1"/>
-      <sheetName val="Pg, Summer, S2"/>
-      <sheetName val="Pg, Summer, S3"/>
-      <sheetName val="Qg, Summer, S1"/>
-      <sheetName val="Qg, Summer, S2"/>
-      <sheetName val="Qg, Summer, S3"/>
-      <sheetName val="GenStatus, Summer"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="B2">
-            <v>1.2291000000000001</v>
-          </cell>
-          <cell r="C2">
-            <v>1.2701</v>
-          </cell>
-          <cell r="D2">
-            <v>1.1373</v>
-          </cell>
-          <cell r="E2">
-            <v>1.0780000000000001</v>
-          </cell>
-          <cell r="F2">
-            <v>0.88319999999999999</v>
-          </cell>
-          <cell r="G2">
-            <v>0.74960000000000004</v>
-          </cell>
-          <cell r="H2">
-            <v>0.91669999999999996</v>
-          </cell>
-          <cell r="I2">
-            <v>0.15920000000000001</v>
-          </cell>
-          <cell r="J2">
-            <v>0.14000000000000001</v>
-          </cell>
-          <cell r="K2">
-            <v>0.2041</v>
-          </cell>
-          <cell r="L2">
-            <v>0.1202</v>
-          </cell>
-          <cell r="M2">
-            <v>0.1502</v>
-          </cell>
-          <cell r="N2">
-            <v>0.23930000000000001</v>
-          </cell>
-          <cell r="O2">
-            <v>0.44090000000000001</v>
-          </cell>
-          <cell r="P2">
-            <v>0.47039999999999998</v>
-          </cell>
-          <cell r="Q2">
-            <v>0.46260000000000001</v>
-          </cell>
-          <cell r="R2">
-            <v>0.25950000000000001</v>
-          </cell>
-          <cell r="S2">
-            <v>0.52859999999999996</v>
-          </cell>
-          <cell r="T2">
-            <v>0.31019999999999998</v>
-          </cell>
-          <cell r="U2">
-            <v>0.21809999999999999</v>
-          </cell>
-          <cell r="V2">
-            <v>0.33119999999999999</v>
-          </cell>
-          <cell r="W2">
-            <v>0.20469999999999999</v>
-          </cell>
-          <cell r="X2">
-            <v>0.93430000000000002</v>
-          </cell>
-          <cell r="Y2">
-            <v>1.1263000000000001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>-2.7749999999999999</v>
-          </cell>
-          <cell r="C3">
-            <v>-2.9674</v>
-          </cell>
-          <cell r="D3">
-            <v>-3.3374000000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>-3.6000999999999999</v>
-          </cell>
-          <cell r="F3">
-            <v>-3.8479999999999999</v>
-          </cell>
-          <cell r="G3">
-            <v>-4.1994999999999996</v>
-          </cell>
-          <cell r="H3">
-            <v>-4.0071000000000003</v>
-          </cell>
-          <cell r="I3">
-            <v>-4.4949399999999997</v>
-          </cell>
-          <cell r="J3">
-            <v>-4.0768399999999998</v>
-          </cell>
-          <cell r="K3">
-            <v>-5.9882099999999996</v>
-          </cell>
-          <cell r="L3">
-            <v>-5.9268400000000003</v>
-          </cell>
-          <cell r="M3">
-            <v>-5.4180400000000004</v>
-          </cell>
-          <cell r="N3">
-            <v>-5.1936400000000003</v>
-          </cell>
-          <cell r="O3">
-            <v>-5.0143700000000004</v>
-          </cell>
-          <cell r="P3">
-            <v>-4.7264200000000001</v>
-          </cell>
-          <cell r="Q3">
-            <v>-4.3010599999999997</v>
-          </cell>
-          <cell r="R3">
-            <v>-4.0217400000000003</v>
-          </cell>
-          <cell r="S3">
-            <v>-3.5990600000000001</v>
-          </cell>
-          <cell r="T3">
-            <v>-2.28443</v>
-          </cell>
-          <cell r="U3">
-            <v>-2.5566200000000001</v>
-          </cell>
-          <cell r="V3">
-            <v>-2.7024599999999999</v>
-          </cell>
-          <cell r="W3">
-            <v>-2.9013499999999999</v>
-          </cell>
-          <cell r="X3">
-            <v>-2.3050999999999999</v>
-          </cell>
-          <cell r="Y3">
-            <v>-2.4493999999999998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>2.6733899999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>2.86008</v>
-          </cell>
-          <cell r="D4">
-            <v>3.2068099999999999</v>
-          </cell>
-          <cell r="E4">
-            <v>3.4506100000000002</v>
-          </cell>
-          <cell r="F4">
-            <v>3.6728499999999999</v>
-          </cell>
-          <cell r="G4">
-            <v>4.0105000000000004</v>
-          </cell>
-          <cell r="H4">
-            <v>3.8235000000000001</v>
-          </cell>
-          <cell r="I4">
-            <v>4.3147900000000003</v>
-          </cell>
-          <cell r="J4">
-            <v>3.9522900000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>4.5098599999999998</v>
-          </cell>
-          <cell r="L4">
-            <v>4.5453700000000001</v>
-          </cell>
-          <cell r="M4">
-            <v>4.2549099999999997</v>
-          </cell>
-          <cell r="N4">
-            <v>4.1115000000000004</v>
-          </cell>
-          <cell r="O4">
-            <v>4.0058199999999999</v>
-          </cell>
-          <cell r="P4">
-            <v>3.7540800000000001</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.4178700000000002</v>
-          </cell>
-          <cell r="R4">
-            <v>3.1840099999999998</v>
-          </cell>
-          <cell r="S4">
-            <v>2.84572</v>
-          </cell>
-          <cell r="T4">
-            <v>2.2273399999999999</v>
-          </cell>
-          <cell r="U4">
-            <v>2.4930400000000001</v>
-          </cell>
-          <cell r="V4">
-            <v>2.6491400000000001</v>
-          </cell>
-          <cell r="W4">
-            <v>2.85364</v>
-          </cell>
-          <cell r="X4">
-            <v>2.2204999999999999</v>
-          </cell>
-          <cell r="Y4">
-            <v>2.3612000000000002</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,16 +415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BA2E0A-46FB-4F4E-929C-1515BC129DD6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -752,7 +432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -760,7 +440,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -781,9 +461,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -860,7 +540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -937,7 +617,7 @@
         <v>0.28061949854957141</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1014,7 +694,7 @@
         <v>-0.42122634657099428</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1091,7 +771,7 @@
         <v>-0.76398900925398083</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1168,7 +848,7 @@
         <v>0.59808028175264938</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1245,7 +925,7 @@
         <v>-0.85516594435808868</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1322,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1399,7 +1079,7 @@
         <v>0.9779994260675885</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1476,7 +1156,7 @@
         <v>-0.6390141466426541</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -1553,7 +1233,7 @@
         <v>-0.31778396827548755</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1630,7 +1310,7 @@
         <v>-0.98273830554209973</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -1707,7 +1387,7 @@
         <v>-0.10991146620600305</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1784,7 +1464,7 @@
         <v>-0.55179730616597533</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -1861,7 +1541,7 @@
         <v>-0.96809189534141671</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1938,7 +1618,7 @@
         <v>-0.1306278942124324</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -2015,7 +1695,7 @@
         <v>-0.32332123097925397</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -2092,7 +1772,7 @@
         <v>0.4426729442254268</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -2169,7 +1849,7 @@
         <v>-0.52085539768262668</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -2246,7 +1926,7 @@
         <v>0.83986864527408778</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -2323,7 +2003,7 @@
         <v>0.61934938741022394</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -2400,7 +2080,7 @@
         <v>6.4604716702369877E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2426,7 +2106,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2452,7 +2132,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2478,7 +2158,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2504,7 +2184,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2530,7 +2210,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2556,7 +2236,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2582,7 +2262,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2608,7 +2288,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2634,7 +2314,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2660,7 +2340,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2686,7 +2366,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2712,7 +2392,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2738,7 +2418,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2764,7 +2444,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2790,7 +2470,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2816,7 +2496,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2842,7 +2522,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2868,7 +2548,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2894,7 +2574,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2920,7 +2600,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2946,7 +2626,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2981,16 +2661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A692A72-59FD-4423-ADC4-03B36872E462}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3067,306 +2747,234 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <f>'[1]EV Characterization'!B2*8</f>
         <v>9.8328000000000007</v>
       </c>
       <c r="C2" s="1">
-        <f>'[1]EV Characterization'!C2*8</f>
         <v>10.1608</v>
       </c>
       <c r="D2" s="1">
-        <f>'[1]EV Characterization'!D2*8</f>
         <v>9.0983999999999998</v>
       </c>
       <c r="E2" s="1">
-        <f>'[1]EV Characterization'!E2*8</f>
         <v>8.6240000000000006</v>
       </c>
       <c r="F2" s="1">
-        <f>'[1]EV Characterization'!F2*8</f>
         <v>7.0655999999999999</v>
       </c>
       <c r="G2" s="1">
-        <f>'[1]EV Characterization'!G2*8</f>
         <v>5.9968000000000004</v>
       </c>
       <c r="H2" s="1">
-        <f>'[1]EV Characterization'!H2*8</f>
         <v>7.3335999999999997</v>
       </c>
       <c r="I2" s="1">
-        <f>'[1]EV Characterization'!I2*8</f>
         <v>1.2736000000000001</v>
       </c>
       <c r="J2" s="1">
-        <f>'[1]EV Characterization'!J2*8</f>
         <v>1.1200000000000001</v>
       </c>
       <c r="K2" s="1">
-        <f>'[1]EV Characterization'!K2*8</f>
         <v>1.6328</v>
       </c>
       <c r="L2" s="1">
-        <f>'[1]EV Characterization'!L2*8</f>
         <v>0.96160000000000001</v>
       </c>
       <c r="M2" s="1">
-        <f>'[1]EV Characterization'!M2*8</f>
         <v>1.2016</v>
       </c>
       <c r="N2" s="1">
-        <f>'[1]EV Characterization'!N2*8</f>
         <v>1.9144000000000001</v>
       </c>
       <c r="O2" s="1">
-        <f>'[1]EV Characterization'!O2*8</f>
         <v>3.5272000000000001</v>
       </c>
       <c r="P2" s="1">
-        <f>'[1]EV Characterization'!P2*8</f>
         <v>3.7631999999999999</v>
       </c>
       <c r="Q2" s="1">
-        <f>'[1]EV Characterization'!Q2*8</f>
         <v>3.7008000000000001</v>
       </c>
       <c r="R2" s="1">
-        <f>'[1]EV Characterization'!R2*8</f>
         <v>2.0760000000000001</v>
       </c>
       <c r="S2" s="1">
-        <f>'[1]EV Characterization'!S2*8</f>
         <v>4.2287999999999997</v>
       </c>
       <c r="T2" s="1">
-        <f>'[1]EV Characterization'!T2*8</f>
         <v>2.4815999999999998</v>
       </c>
       <c r="U2" s="1">
-        <f>'[1]EV Characterization'!U2*8</f>
         <v>1.7447999999999999</v>
       </c>
       <c r="V2" s="1">
-        <f>'[1]EV Characterization'!V2*8</f>
         <v>2.6496</v>
       </c>
       <c r="W2" s="1">
-        <f>'[1]EV Characterization'!W2*8</f>
         <v>1.6375999999999999</v>
       </c>
       <c r="X2" s="1">
-        <f>'[1]EV Characterization'!X2*8</f>
         <v>7.4744000000000002</v>
       </c>
       <c r="Y2" s="1">
-        <f>'[1]EV Characterization'!Y2*8</f>
         <v>9.0104000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <f>'[1]EV Characterization'!B3*8</f>
         <v>-22.2</v>
       </c>
       <c r="C3" s="1">
-        <f>'[1]EV Characterization'!C3*8</f>
         <v>-23.7392</v>
       </c>
       <c r="D3" s="1">
-        <f>'[1]EV Characterization'!D3*8</f>
         <v>-26.699200000000001</v>
       </c>
       <c r="E3" s="1">
-        <f>'[1]EV Characterization'!E3*8</f>
         <v>-28.800799999999999</v>
       </c>
       <c r="F3" s="1">
-        <f>'[1]EV Characterization'!F3*8</f>
         <v>-30.783999999999999</v>
       </c>
       <c r="G3" s="1">
-        <f>'[1]EV Characterization'!G3*8</f>
         <v>-33.595999999999997</v>
       </c>
       <c r="H3" s="1">
-        <f>'[1]EV Characterization'!H3*8</f>
         <v>-32.056800000000003</v>
       </c>
       <c r="I3" s="1">
-        <f>'[1]EV Characterization'!I3*8</f>
         <v>-35.959519999999998</v>
       </c>
       <c r="J3" s="1">
-        <f>'[1]EV Characterization'!J3*8</f>
         <v>-32.614719999999998</v>
       </c>
       <c r="K3" s="1">
-        <f>'[1]EV Characterization'!K3*8</f>
         <v>-47.905679999999997</v>
       </c>
       <c r="L3" s="1">
-        <f>'[1]EV Characterization'!L3*8</f>
         <v>-47.414720000000003</v>
       </c>
       <c r="M3" s="1">
-        <f>'[1]EV Characterization'!M3*8</f>
         <v>-43.344320000000003</v>
       </c>
       <c r="N3" s="1">
-        <f>'[1]EV Characterization'!N3*8</f>
         <v>-41.549120000000002</v>
       </c>
       <c r="O3" s="1">
-        <f>'[1]EV Characterization'!O3*8</f>
         <v>-40.114960000000004</v>
       </c>
       <c r="P3" s="1">
-        <f>'[1]EV Characterization'!P3*8</f>
         <v>-37.811360000000001</v>
       </c>
       <c r="Q3" s="1">
-        <f>'[1]EV Characterization'!Q3*8</f>
         <v>-34.408479999999997</v>
       </c>
       <c r="R3" s="1">
-        <f>'[1]EV Characterization'!R3*8</f>
         <v>-32.173920000000003</v>
       </c>
       <c r="S3" s="1">
-        <f>'[1]EV Characterization'!S3*8</f>
         <v>-28.792480000000001</v>
       </c>
       <c r="T3" s="1">
-        <f>'[1]EV Characterization'!T3*8</f>
         <v>-18.27544</v>
       </c>
       <c r="U3" s="1">
-        <f>'[1]EV Characterization'!U3*8</f>
         <v>-20.452960000000001</v>
       </c>
       <c r="V3" s="1">
-        <f>'[1]EV Characterization'!V3*8</f>
         <v>-21.619679999999999</v>
       </c>
       <c r="W3" s="1">
-        <f>'[1]EV Characterization'!W3*8</f>
         <v>-23.210799999999999</v>
       </c>
       <c r="X3" s="1">
-        <f>'[1]EV Characterization'!X3*8</f>
         <v>-18.440799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <f>'[1]EV Characterization'!Y3*8</f>
         <v>-19.595199999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <f>'[1]EV Characterization'!B4*8</f>
         <v>21.387119999999999</v>
       </c>
       <c r="C4" s="1">
-        <f>'[1]EV Characterization'!C4*8</f>
         <v>22.88064</v>
       </c>
       <c r="D4" s="1">
-        <f>'[1]EV Characterization'!D4*8</f>
         <v>25.65448</v>
       </c>
       <c r="E4" s="1">
-        <f>'[1]EV Characterization'!E4*8</f>
         <v>27.604880000000001</v>
       </c>
       <c r="F4" s="1">
-        <f>'[1]EV Characterization'!F4*8</f>
         <v>29.3828</v>
       </c>
       <c r="G4" s="1">
-        <f>'[1]EV Characterization'!G4*8</f>
         <v>32.084000000000003</v>
       </c>
       <c r="H4" s="1">
-        <f>'[1]EV Characterization'!H4*8</f>
         <v>30.588000000000001</v>
       </c>
       <c r="I4" s="1">
-        <f>'[1]EV Characterization'!I4*8</f>
         <v>34.518320000000003</v>
       </c>
       <c r="J4" s="1">
-        <f>'[1]EV Characterization'!J4*8</f>
         <v>31.618320000000001</v>
       </c>
       <c r="K4" s="1">
-        <f>'[1]EV Characterization'!K4*8</f>
         <v>36.078879999999998</v>
       </c>
       <c r="L4" s="1">
-        <f>'[1]EV Characterization'!L4*8</f>
         <v>36.362960000000001</v>
       </c>
       <c r="M4" s="1">
-        <f>'[1]EV Characterization'!M4*8</f>
         <v>34.039279999999998</v>
       </c>
       <c r="N4" s="1">
-        <f>'[1]EV Characterization'!N4*8</f>
         <v>32.892000000000003</v>
       </c>
       <c r="O4" s="1">
-        <f>'[1]EV Characterization'!O4*8</f>
         <v>32.046559999999999</v>
       </c>
       <c r="P4" s="1">
-        <f>'[1]EV Characterization'!P4*8</f>
         <v>30.032640000000001</v>
       </c>
       <c r="Q4" s="1">
-        <f>'[1]EV Characterization'!Q4*8</f>
         <v>27.342960000000001</v>
       </c>
       <c r="R4" s="1">
-        <f>'[1]EV Characterization'!R4*8</f>
         <v>25.472079999999998</v>
       </c>
       <c r="S4" s="1">
-        <f>'[1]EV Characterization'!S4*8</f>
         <v>22.76576</v>
       </c>
       <c r="T4" s="1">
-        <f>'[1]EV Characterization'!T4*8</f>
         <v>17.818719999999999</v>
       </c>
       <c r="U4" s="1">
-        <f>'[1]EV Characterization'!U4*8</f>
         <v>19.944320000000001</v>
       </c>
       <c r="V4" s="1">
-        <f>'[1]EV Characterization'!V4*8</f>
         <v>21.19312</v>
       </c>
       <c r="W4" s="1">
-        <f>'[1]EV Characterization'!W4*8</f>
         <v>22.82912</v>
       </c>
       <c r="X4" s="1">
-        <f>'[1]EV Characterization'!X4*8</f>
         <v>17.763999999999999</v>
       </c>
       <c r="Y4" s="1">
-        <f>'[1]EV Characterization'!Y4*8</f>
         <v>18.889600000000002</v>
       </c>
     </row>
@@ -3384,13 +2992,13 @@
       <selection activeCell="C3" sqref="C3:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3432,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3454,7 +3062,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3476,7 +3084,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3498,7 +3106,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3520,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3542,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3564,7 +3172,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3586,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3608,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3630,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3652,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3674,7 +3282,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3696,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3718,7 +3326,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3740,7 +3348,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3762,7 +3370,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3784,7 +3392,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3806,7 +3414,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3828,7 +3436,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3850,7 +3458,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3872,7 +3480,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3894,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3916,7 +3524,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3938,7 +3546,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3960,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3982,7 +3590,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4004,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4026,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4048,7 +3656,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4070,19 +3678,19 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4125,9 +3733,9 @@
       <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4204,7 +3812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4305,7 +3913,7 @@
         <v>3.4721290250071251</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4406,7 +4014,7 @@
         <v>1.7120769165644356</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4507,7 +4115,7 @@
         <v>4.7040228229883372</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -4608,7 +4216,7 @@
         <v>17.01514369575408</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4709,7 +4317,7 @@
         <v>-2.3784076037384558</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -4810,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4911,7 +4519,7 @@
         <v>7.3990706558747554</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -5012,7 +4620,7 @@
         <v>3.9193321281753715</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -5113,7 +4721,7 @@
         <v>5.6876201469116703</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -5214,7 +4822,7 @@
         <v>2.4200252920853957</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -5315,7 +4923,7 @@
         <v>5.1422156584908292</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -5416,7 +5024,7 @@
         <v>2.3326469902054714</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -5517,7 +5125,7 @@
         <v>4.0854592082896621</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -5618,7 +5226,7 @@
         <v>1.891374271298556</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -5719,7 +5327,7 @@
         <v>10.739583093068717</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -5820,7 +5428,7 @@
         <v>2.5002660325515853</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -5921,7 +5529,7 @@
         <v>5.9560995484588082</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -6022,7 +5630,7 @@
         <v>2.1527559278612802</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -6123,7 +5731,7 @@
         <v>-0.19483870967741934</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -6224,7 +5832,7 @@
         <v>7.5759285723891523</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6250,7 +5858,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -6276,7 +5884,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -6302,7 +5910,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -6328,7 +5936,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -6354,7 +5962,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -6380,7 +5988,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -6406,7 +6014,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -6432,7 +6040,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -6458,7 +6066,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6484,7 +6092,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6510,7 +6118,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6549,9 +6157,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6628,7 +6236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -6729,7 +6337,7 @@
         <v>2.67796251009548</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -6830,7 +6438,7 @@
         <v>-0.86507049089196753</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6931,7 +6539,7 @@
         <v>1.1888817846207462</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -7032,7 +6640,7 @@
         <v>5.4352689662913605</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -7133,7 +6741,7 @@
         <v>-0.81195500038019763</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -7234,7 +6842,7 @@
         <v>1.9617306627066688</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -7335,7 +6943,7 @@
         <v>6.2764758876546001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -7436,7 +7044,7 @@
         <v>-1.0304407443151309</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -7537,7 +7145,7 @@
         <v>-0.70522448021869844</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -7638,7 +7246,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -7739,7 +7347,7 @@
         <v>-0.63594336197506962</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -7840,7 +7448,7 @@
         <v>-0.6419085391387267</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -7941,7 +7549,7 @@
         <v>-3.2541078301035999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -8042,7 +7650,7 @@
         <v>-0.13155514234051496</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -8143,7 +7751,7 @@
         <v>-11.049631443319495</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -8244,7 +7852,7 @@
         <v>0.44153813602649417</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -8345,7 +7953,7 @@
         <v>-5.2478468667833873</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -8446,7 +8054,7 @@
         <v>1.7281081719599969</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -8547,7 +8155,7 @@
         <v>0.53608862377503197</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -8648,7 +8256,7 @@
         <v>-1.0041847568876967</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8674,7 +8282,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -8700,7 +8308,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8726,7 +8334,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8752,7 +8360,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -8778,7 +8386,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -8804,7 +8412,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8830,7 +8438,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8856,7 +8464,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8882,7 +8490,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8908,7 +8516,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8934,7 +8542,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8973,9 +8581,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -9052,7 +8660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9153,7 +8761,7 @@
         <v>18.781053617606535</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9254,7 +8862,7 @@
         <v>1.9676446142528987</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9355,7 +8963,7 @@
         <v>5.7424758897401533</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -9456,7 +9064,7 @@
         <v>19.179923574685155</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -9557,7 +9165,7 @@
         <v>-1.8346527716235175</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -9658,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -9759,7 +9367,7 @@
         <v>6.916149549038618</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -9860,7 +9468,7 @@
         <v>4.0700749263845619</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -9961,7 +9569,7 @@
         <v>5.6355179910990767</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -10062,7 +9670,7 @@
         <v>2.5562039006779038</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -10163,7 +9771,7 @@
         <v>6.0990574220782969</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -10264,7 +9872,7 @@
         <v>2.5349810310319194</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -10365,7 +9973,7 @@
         <v>3.9575955265610441</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -10466,7 +10074,7 @@
         <v>1.7081937607668136</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -10567,7 +10175,7 @@
         <v>12.575518379341545</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -10668,7 +10276,7 @@
         <v>2.6178384354747983</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -10769,7 +10377,7 @@
         <v>6.4716585381994109</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -10870,7 +10478,7 @@
         <v>2.5903967538322812</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -10971,7 +10579,7 @@
         <v>0.1683257918552036</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -11072,7 +10680,7 @@
         <v>8.745617694662025</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -11098,7 +10706,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -11124,7 +10732,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -11150,7 +10758,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -11176,7 +10784,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -11202,7 +10810,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -11228,7 +10836,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -11254,7 +10862,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -11280,7 +10888,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -11306,7 +10914,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -11332,7 +10940,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -11358,7 +10966,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -11397,9 +11005,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -11476,7 +11084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -11577,7 +11185,7 @@
         <v>3.5638676315795568</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -11678,7 +11286,7 @@
         <v>-0.50547161588519307</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11779,7 +11387,7 @@
         <v>-1.2223824148063693</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -11880,7 +11488,7 @@
         <v>6.5190750711038783</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -11981,7 +11589,7 @@
         <v>-25.654978330742662</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -12082,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -12183,7 +11791,7 @@
         <v>7.3349956955069135</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -12284,7 +11892,7 @@
         <v>-1.0224226346282466</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -12385,7 +11993,7 @@
         <v>-0.79445992068871885</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -12486,7 +12094,7 @@
         <v>-1.7689289499757797</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -12587,7 +12195,7 @@
         <v>-0.63748650399481765</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -12688,7 +12296,7 @@
         <v>-0.4966175755493778</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -12789,7 +12397,7 @@
         <v>-3.2915124441608166</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -12890,7 +12498,7 @@
         <v>-9.143952594870268E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -12991,7 +12599,7 @@
         <v>-3.6211977869676444</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -13092,7 +12700,7 @@
         <v>0.70827671076068288</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -13193,7 +12801,7 @@
         <v>-3.4897311644735987</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -13294,7 +12902,7 @@
         <v>1.9316978841304018</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -13395,7 +13003,7 @@
         <v>0.55741444866920153</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -13496,7 +13104,7 @@
         <v>0.12274896173450275</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -13522,7 +13130,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -13548,7 +13156,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -13574,7 +13182,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -13600,7 +13208,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -13626,7 +13234,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -13652,7 +13260,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -13678,7 +13286,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -13704,7 +13312,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -13730,7 +13338,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -13756,7 +13364,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -13782,7 +13390,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13821,9 +13429,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -13900,7 +13508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13977,7 +13585,7 @@
         <v>0.1600059458528629</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -14054,7 +13662,7 @@
         <v>0.71336538190184817</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14131,7 +13739,7 @@
         <v>0.61895037144583387</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -14208,7 +13816,7 @@
         <v>0.74627823226991585</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -14285,7 +13893,7 @@
         <v>-7.9280253457948535E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -14362,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -14439,7 +14047,7 @@
         <v>0.6606313085602461</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -14516,7 +14124,7 @@
         <v>0.63215034325409214</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -14593,7 +14201,7 @@
         <v>0.69361221303800868</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -14670,7 +14278,7 @@
         <v>0.69143579773868447</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -14747,7 +14355,7 @@
         <v>0.57135729538786995</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -14824,7 +14432,7 @@
         <v>0.72895218443920984</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -14901,7 +14509,7 @@
         <v>0.4300483377147013</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -14978,7 +14586,7 @@
         <v>0.85971557786297992</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -15055,7 +14663,7 @@
         <v>0.61369046246106951</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -15132,7 +14740,7 @@
         <v>0.78133313517237035</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -15209,7 +14817,7 @@
         <v>0.68460914350101254</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -15286,7 +14894,7 @@
         <v>0.61507312224608002</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -15363,7 +14971,7 @@
         <v>-8.1182795698924726E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -15440,7 +15048,7 @@
         <v>0.71471024267822192</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -15466,7 +15074,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -15492,7 +15100,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -15518,7 +15126,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -15544,7 +15152,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -15570,7 +15178,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -15596,7 +15204,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -15622,7 +15230,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -15648,7 +15256,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -15674,7 +15282,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -15700,7 +15308,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -15726,7 +15334,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -15752,7 +15360,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -15778,7 +15386,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -15804,7 +15412,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -15830,7 +15438,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -15856,7 +15464,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -15882,7 +15490,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -15908,7 +15516,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -15934,7 +15542,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -15960,7 +15568,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -15986,7 +15594,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -16025,9 +15633,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -16104,7 +15712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16181,7 +15789,7 @@
         <v>0.21086318977129764</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16258,7 +15866,7 @@
         <v>-0.72089207574330627</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16335,7 +15943,7 @@
         <v>0.74305111538796631</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -16412,7 +16020,7 @@
         <v>0.49864852901755596</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -16489,7 +16097,7 @@
         <v>-2.7065166679339923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -16566,7 +16174,7 @@
         <v>0.98086533135333442</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -16643,7 +16251,7 @@
         <v>0.83686345168728005</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -16720,7 +16328,7 @@
         <v>-0.6440254651969568</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -16797,7 +16405,7 @@
         <v>-0.28208979208747936</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -16874,7 +16482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -16951,7 +16559,7 @@
         <v>-0.10964540723708098</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -17028,7 +16636,7 @@
         <v>-0.71323171015414077</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -17105,7 +16713,7 @@
         <v>-0.95709053826576473</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -17182,7 +16790,7 @@
         <v>-0.18793591762930709</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -17259,7 +16867,7 @@
         <v>-0.98657423601066918</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -17336,7 +16944,7 @@
         <v>0.27596133501655884</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -17413,7 +17021,7 @@
         <v>-0.7832607263855802</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -17490,7 +17098,7 @@
         <v>0.75135137911304217</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -17567,7 +17175,7 @@
         <v>0.59565402641670218</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -17644,7 +17252,7 @@
         <v>-0.52851829309878773</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -17670,7 +17278,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -17696,7 +17304,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -17722,7 +17330,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -17748,7 +17356,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -17774,7 +17382,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -17800,7 +17408,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -17826,7 +17434,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -17852,7 +17460,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -17878,7 +17486,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -17904,7 +17512,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -17930,7 +17538,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -17956,7 +17564,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -17982,7 +17590,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -18008,7 +17616,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -18034,7 +17642,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -18060,7 +17668,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -18086,7 +17694,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -18112,7 +17720,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -18138,7 +17746,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -18164,7 +17772,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -18190,7 +17798,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -18229,9 +17837,9 @@
       <selection activeCell="B2" sqref="B2:Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -18308,7 +17916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18385,7 +17993,7 @@
         <v>0.86548634182518602</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18462,7 +18070,7 @@
         <v>0.81985192260537454</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18539,7 +18147,7 @@
         <v>0.75558893286054651</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -18616,7 +18224,7 @@
         <v>0.84122471818794531</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -18693,7 +18301,7 @@
         <v>-6.115509238745058E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -18770,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -18847,7 +18455,7 @@
         <v>0.61751335259273377</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -18924,7 +18532,7 @@
         <v>0.65646369780396163</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>15</v>
       </c>
@@ -19001,7 +18609,7 @@
         <v>0.68725829159744845</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -19078,7 +18686,7 @@
         <v>0.73034397162225828</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>17</v>
       </c>
@@ -19155,7 +18763,7 @@
         <v>0.67767304689758856</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -19232,7 +18840,7 @@
         <v>0.79218157219747476</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -19309,7 +18917,7 @@
         <v>0.41658900279589939</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20</v>
       </c>
@@ -19386,7 +18994,7 @@
         <v>0.77645170943946062</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>21</v>
       </c>
@@ -19463,7 +19071,7 @@
         <v>0.71860105024808829</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>23</v>
       </c>
@@ -19540,7 +19148,7 @@
         <v>0.81807451108587437</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -19617,7 +19225,7 @@
         <v>0.74386879749418522</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -19694,7 +19302,7 @@
         <v>0.74011335823779467</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>29</v>
       </c>
@@ -19771,7 +19379,7 @@
         <v>7.0135746606334842E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -19848,7 +19456,7 @@
         <v>0.82505827308132318</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -19874,7 +19482,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -19900,7 +19508,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -19926,7 +19534,7 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -19952,7 +19560,7 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -19978,7 +19586,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -20004,7 +19612,7 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -20030,7 +19638,7 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -20056,7 +19664,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -20082,7 +19690,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -20108,7 +19716,7 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -20134,7 +19742,7 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -20160,7 +19768,7 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -20186,7 +19794,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -20212,7 +19820,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -20238,7 +19846,7 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -20264,7 +19872,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -20290,7 +19898,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -20316,7 +19924,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -20342,7 +19950,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -20368,7 +19976,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -20394,7 +20002,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
